--- a/InputData/geoeng/DACD/Direct Air Capture Data.xlsx
+++ b/InputData/geoeng/DACD/Direct Air Capture Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/template_state/geoeng/DACD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/geoeng/dacd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1F5627-DB36-464A-A9FD-E73E81336390}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F9CA9B-0DF8-BB4C-903C-BCD5A3F5753B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23420" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -778,7 +778,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -805,6 +805,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1211,6 +1212,9 @@
       <c r="B1" t="s">
         <v>101</v>
       </c>
+      <c r="C1" s="22">
+        <v>44307</v>
+      </c>
       <c r="J1" s="19" t="s">
         <v>96</v>
       </c>
@@ -2984,7 +2988,7 @@
         <v>1490678.5</v>
       </c>
       <c r="D48" s="18">
-        <f t="shared" ref="D48:D79" si="1">C48/$C$15</f>
+        <f t="shared" ref="D48:D74" si="1">C48/$C$15</f>
         <v>7.8080080194170634E-2</v>
       </c>
     </row>
